--- a/PTBR/Lang/PTBR/Game/Note.xlsx
+++ b/PTBR/Lang/PTBR/Game/Note.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFD9E58-CDEC-472E-979F-4A60860AFA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8D0155-C0B6-4A9D-9ECD-B860EBD5B1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2160" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -593,14 +593,14 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C3:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="61" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -634,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -651,7 +651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -668,7 +668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -685,7 +685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -702,7 +702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -719,7 +719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -736,7 +736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -753,7 +753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -770,7 +770,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -804,7 +804,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>

--- a/PTBR/Lang/PTBR/Game/Note.xlsx
+++ b/PTBR/Lang/PTBR/Game/Note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8D0155-C0B6-4A9D-9ECD-B860EBD5B1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E6B1F0-5942-4F64-9D47-4D7B7689CAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>sister</t>
   </si>
   <si>
-    <t>↓Younger sister  ↑Other woman</t>
-  </si>
-  <si>
     <t>↓妹　↑他の女</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>Da meia-noite até o anoitecer, ele vigia.</t>
   </si>
   <si>
-    <t>↓Irmã mais nova  ↑Outra mulher</t>
-  </si>
-  <si>
     <t>Em honra aos sacrifícios de Odina, a Deusa da Compaixão</t>
   </si>
   <si>
@@ -209,6 +203,12 @@
   </si>
   <si>
     <t>O Lago das Carpas</t>
+  </si>
+  <si>
+    <t>↓Younger sister↑Other woman</t>
+  </si>
+  <si>
+    <t>↓ Irmã mais nova ↑ Outra mulher</t>
   </si>
 </sst>
 </file>
@@ -590,13 +590,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C3:C14"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="61" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="66.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -622,10 +622,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -639,10 +639,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -656,10 +656,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -673,10 +673,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -690,10 +690,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -707,118 +707,118 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
